--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,132 +46,150 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>broken</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>thought</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>bit</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>could</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
+    <t>buy</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -184,12 +202,12 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -202,13 +220,13 @@
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
   </si>
   <si>
     <t>friends</t>
@@ -581,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K3">
         <v>0.8214285714285714</v>
@@ -721,16 +739,16 @@
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>0.7692307692307693</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K5">
-        <v>0.6666666666666666</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7330097087378641</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="C6">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D6">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K6">
-        <v>0.53125</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7323943661971831</v>
+        <v>0.734375</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K7">
-        <v>0.5283018867924528</v>
+        <v>0.515625</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7105263157894737</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K8">
         <v>0.4057971014492754</v>
@@ -950,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7043010752688172</v>
+        <v>0.7184466019417476</v>
       </c>
       <c r="C9">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D9">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K9">
-        <v>0.360655737704918</v>
+        <v>0.3877049180327869</v>
       </c>
       <c r="L9">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="M9">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>780</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.668918918918919</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K10">
-        <v>0.3558106169296987</v>
+        <v>0.3443328550932568</v>
       </c>
       <c r="L10">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="M10">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6545454545454545</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K11">
-        <v>0.2883817427385892</v>
+        <v>0.3112033195020747</v>
       </c>
       <c r="L11">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M11">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,16 +1139,16 @@
         <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>0.25</v>
+        <v>0.2289156626506024</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>90</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6190476190476191</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K13">
-        <v>0.2232415902140673</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="L13">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>254</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,37 +1218,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5882352941176471</v>
+        <v>0.5625</v>
       </c>
       <c r="C14">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D14">
-        <v>70</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>49</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K14">
-        <v>0.2228915662650602</v>
+        <v>0.1896024464831804</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>129</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5370370370370371</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1271,16 +1289,16 @@
         <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K15">
-        <v>0.1693121693121693</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4840579710144928</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C16">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1318,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K16">
-        <v>0.1204819277108434</v>
+        <v>0.1365461847389558</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4631578947368421</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1368,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K17">
-        <v>0.09991235758106924</v>
+        <v>0.1069237510955302</v>
       </c>
       <c r="L17">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M17">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1027</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1400,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4457831325301205</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K18">
-        <v>0.0474025974025974</v>
+        <v>0.04480519480519481</v>
       </c>
       <c r="L18">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M18">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>0.99</v>
@@ -1442,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>1467</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1468,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4444444444444444</v>
+        <v>0.4840579710144928</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1494,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4173228346456693</v>
+        <v>0.46875</v>
       </c>
       <c r="C20">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1494,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1502,13 +1520,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3968253968253968</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1520,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1528,13 +1546,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.375</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1546,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1554,13 +1572,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3707865168539326</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1572,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1580,13 +1598,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3222748815165877</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="C24">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1598,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1606,13 +1624,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3118811881188119</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1624,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>139</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1632,13 +1650,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3076923076923077</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C26">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1650,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1658,13 +1676,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2959183673469388</v>
+        <v>0.359375</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1676,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1684,13 +1702,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2525773195876289</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C28">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D28">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1702,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1710,13 +1728,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2077151335311573</v>
+        <v>0.3033175355450237</v>
       </c>
       <c r="C29">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D29">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1728,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>534</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1736,13 +1754,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1930379746835443</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C30">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1754,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>255</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1762,13 +1780,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1930379746835443</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C31">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D31">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1780,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>255</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1788,13 +1806,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1920289855072464</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C32">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1806,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>223</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1814,13 +1832,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.18</v>
+        <v>0.2136498516320475</v>
       </c>
       <c r="C33">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1832,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>164</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1840,13 +1858,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1775700934579439</v>
+        <v>0.1993670886075949</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D34">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1858,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>176</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1866,13 +1884,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1629955947136564</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C35">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1884,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>380</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1892,13 +1910,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1528662420382166</v>
+        <v>0.1885714285714286</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1910,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1918,25 +1936,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1498559077809798</v>
+        <v>0.185</v>
       </c>
       <c r="C37">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D37">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E37">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>295</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1944,13 +1962,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1371428571428571</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1962,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>151</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1970,13 +1988,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.125</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1988,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>168</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1996,13 +2014,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1161048689138577</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2014,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>236</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2022,25 +2040,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1088709677419355</v>
+        <v>0.1613832853025937</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>221</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2048,13 +2066,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.08493150684931507</v>
+        <v>0.1563876651982379</v>
       </c>
       <c r="C42">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2066,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>334</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2074,13 +2092,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.07605633802816901</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2092,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>328</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2100,25 +2118,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.06013363028953229</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44">
         <v>27</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>422</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2126,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.05930807248764415</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="C45">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E45">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>571</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2152,25 +2170,181 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.04281345565749235</v>
+        <v>0.07605633802816901</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46">
+        <v>27</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.07397260273972603</v>
+      </c>
+      <c r="C47">
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.07126948775055679</v>
+      </c>
+      <c r="C48">
+        <v>32</v>
+      </c>
+      <c r="D48">
+        <v>32</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.06105610561056106</v>
+      </c>
+      <c r="C49">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>39</v>
+      </c>
+      <c r="E49">
+        <v>0.05</v>
+      </c>
+      <c r="F49">
+        <v>0.95</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.05827505827505827</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
+      </c>
+      <c r="E50">
+        <v>0.17</v>
+      </c>
+      <c r="F50">
+        <v>0.83</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.04447852760736196</v>
+      </c>
+      <c r="C51">
         <v>29</v>
       </c>
-      <c r="E46">
-        <v>0.03</v>
-      </c>
-      <c r="F46">
-        <v>0.97</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>626</v>
+      <c r="D51">
+        <v>32</v>
+      </c>
+      <c r="E51">
+        <v>0.09</v>
+      </c>
+      <c r="F51">
+        <v>0.91</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.04171934260429835</v>
+      </c>
+      <c r="C52">
+        <v>33</v>
+      </c>
+      <c r="D52">
+        <v>36</v>
+      </c>
+      <c r="E52">
+        <v>0.08</v>
+      </c>
+      <c r="F52">
+        <v>0.92</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>758</v>
       </c>
     </row>
   </sheetData>
